--- a/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location-residential-capacity.xlsx
+++ b/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location-residential-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-24T16:23:30+00:00</t>
+    <t>2026-01-05T09:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location-residential-capacity.xlsx
+++ b/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location-residential-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-05T09:58:39+00:00</t>
+    <t>2026-01-05T15:01:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location-residential-capacity.xlsx
+++ b/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location-residential-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-05T15:01:18+00:00</t>
+    <t>2026-01-07T09:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location-residential-capacity.xlsx
+++ b/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location-residential-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T09:10:41+00:00</t>
+    <t>2026-01-26T13:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location-residential-capacity.xlsx
+++ b/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location-residential-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T13:52:52+00:00</t>
+    <t>2026-01-26T14:22:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location-residential-capacity.xlsx
+++ b/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location-residential-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T14:22:26+00:00</t>
+    <t>2026-01-26T14:31:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
